--- a/stock_historical_data/3mo/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/3mo/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,113 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B4" t="n">
+        <v>193.3820538235479</v>
+      </c>
+      <c r="C4" t="n">
+        <v>207.25186904557</v>
+      </c>
+      <c r="D4" t="n">
+        <v>150.6292090193702</v>
+      </c>
+      <c r="E4" t="n">
+        <v>170.1264953613281</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>32625510</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>31</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B5" t="n">
+        <v>174</v>
+      </c>
+      <c r="C5" t="n">
+        <v>192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>158.1100006103516</v>
+      </c>
+      <c r="E5" t="n">
+        <v>183.8999938964844</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>7276439</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>44</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
